--- a/产品目录填写_汇总V2.xlsx
+++ b/产品目录填写_汇总V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12470"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
   <si>
     <t>软件项目：</t>
   </si>
@@ -446,6 +446,9 @@
     <t>各个系统之间独立性导致了系统之间无法相互进行连接，限制了高级应用的开发。数据类型不一致导致各系统相互独立，通过只能够管控平台进行智能管控，智能联动。</t>
   </si>
   <si>
+    <t>高高</t>
+  </si>
+  <si>
     <t>基础平台</t>
   </si>
   <si>
@@ -507,6 +510,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -515,6 +554,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -523,14 +600,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -547,117 +655,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -686,12 +689,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -704,67 +767,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,97 +857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,6 +939,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -951,15 +972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -971,35 +983,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,6 +1016,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,133 +1056,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,10 +1560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1705,7 +1708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="39" spans="1:6">
+    <row r="9" ht="26" spans="1:6">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="39" spans="1:6">
+    <row r="10" ht="26" spans="1:6">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2038,7 +2041,7 @@
       </c>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" ht="52" spans="1:6">
+    <row r="31" ht="39" spans="1:6">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" ht="65" spans="1:6">
+    <row r="35" ht="39" spans="1:6">
       <c r="A35" s="16">
         <v>5</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" ht="39" spans="1:6">
+    <row r="36" ht="26" spans="1:6">
       <c r="A36" s="16">
         <v>6</v>
       </c>
@@ -2216,6 +2219,11 @@
       </c>
       <c r="F39" s="16" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2257,19 +2265,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/产品目录填写_汇总V2.xlsx
+++ b/产品目录填写_汇总V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
   <si>
     <t>软件项目：</t>
   </si>
@@ -446,9 +446,6 @@
     <t>各个系统之间独立性导致了系统之间无法相互进行连接，限制了高级应用的开发。数据类型不一致导致各系统相互独立，通过只能够管控平台进行智能管控，智能联动。</t>
   </si>
   <si>
-    <t>高高</t>
-  </si>
-  <si>
     <t>基础平台</t>
   </si>
   <si>
@@ -518,7 +515,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,13 +559,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -546,16 +583,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,62 +628,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,28 +652,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -695,181 +692,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,20 +936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,32 +966,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,23 +1012,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,130 +1053,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1560,10 +1557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2219,11 +2216,6 @@
       </c>
       <c r="F39" s="16" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2265,19 +2257,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
